--- a/public/files/templates/rpt_tmp_rsp_inc_v5.xlsx
+++ b/public/files/templates/rpt_tmp_rsp_inc_v5.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\server\vs.gvops.cl-prod\public_html\public\files\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\source\repos\server\vs.gvops.cl\public\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A01A303-785D-4E4B-9932-C9CCCEEC83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6D927-A1E8-4645-806D-C3AEF1CF23C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="210" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Reporte!$A$1:$M$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Reporte!$A$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tiempos de Respuesta</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Comentario Fin</t>
-  </si>
-  <si>
-    <t>Recurso</t>
   </si>
   <si>
     <t xml:space="preserve">Obra concesionada: </t>
@@ -709,13 +706,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
@@ -724,14 +721,13 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="27" customWidth="1"/>
-    <col min="10" max="12" width="20.7109375" style="27" customWidth="1"/>
-    <col min="13" max="15" width="44.7109375" customWidth="1"/>
+    <col min="9" max="11" width="20.7109375" style="27" customWidth="1"/>
+    <col min="12" max="14" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -744,16 +740,15 @@
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -766,16 +761,15 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="15" t="s">
         <v>0</v>
@@ -786,23 +780,22 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="8"/>
@@ -810,20 +803,19 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="28"/>
       <c r="C5" s="24"/>
@@ -832,20 +824,19 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
@@ -856,20 +847,19 @@
       <c r="F6" s="10"/>
       <c r="G6" s="20"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
       <c r="C7" s="24"/>
@@ -881,17 +871,16 @@
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="26"/>
@@ -903,17 +892,16 @@
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="17" t="s">
         <v>1</v>
@@ -937,33 +925,30 @@
         <v>5</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -975,17 +960,16 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -998,16 +982,15 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="23"/>
@@ -1019,17 +1002,16 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="26"/>
@@ -1041,7 +1023,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1049,9 +1031,8 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="26"/>
@@ -1063,7 +1044,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1071,9 +1052,8 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="26"/>
@@ -1085,7 +1065,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1093,9 +1073,8 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="26"/>
@@ -1107,7 +1086,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1115,9 +1094,8 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="26"/>
@@ -1129,7 +1107,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1137,9 +1115,8 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="26"/>
@@ -1151,7 +1128,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1159,9 +1136,8 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="26"/>
@@ -1173,7 +1149,7 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1181,9 +1157,8 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="26"/>
@@ -1195,7 +1170,7 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1203,9 +1178,8 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="26"/>
@@ -1217,7 +1191,7 @@
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1225,9 +1199,8 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="26"/>
@@ -1239,7 +1212,7 @@
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1247,9 +1220,8 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="26"/>
@@ -1261,7 +1233,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1269,9 +1241,8 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="26"/>
@@ -1283,7 +1254,7 @@
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1291,9 +1262,8 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="26"/>
@@ -1305,7 +1275,7 @@
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1313,9 +1283,8 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="26"/>
@@ -1327,7 +1296,7 @@
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1335,9 +1304,8 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="26"/>
@@ -1349,7 +1317,7 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1357,9 +1325,8 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="26"/>
@@ -1371,7 +1338,7 @@
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1379,9 +1346,8 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="26"/>
@@ -1393,7 +1359,7 @@
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1401,9 +1367,8 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="26"/>
@@ -1415,7 +1380,7 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1423,9 +1388,8 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="26"/>
       <c r="D31" s="2"/>
@@ -1436,7 +1400,7 @@
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -1444,9 +1408,8 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="26"/>
       <c r="D32" s="2"/>
@@ -1457,7 +1420,7 @@
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -1465,9 +1428,8 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="26"/>
       <c r="D33" s="2"/>
@@ -1478,7 +1440,7 @@
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -1486,9 +1448,8 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="26"/>
       <c r="D34" s="2"/>
@@ -1499,7 +1460,7 @@
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1507,9 +1468,8 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
@@ -1520,7 +1480,7 @@
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -1528,9 +1488,8 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="26"/>
       <c r="D36" s="2"/>
@@ -1541,7 +1500,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -1549,9 +1508,8 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="26"/>
       <c r="D37" s="2"/>
@@ -1562,7 +1520,7 @@
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -1570,9 +1528,8 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="26"/>
       <c r="D38" s="2"/>
@@ -1583,7 +1540,7 @@
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -1591,9 +1548,8 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="26"/>
       <c r="D39" s="2"/>
@@ -1604,7 +1560,7 @@
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -1612,9 +1568,8 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="26"/>
       <c r="D40" s="2"/>
@@ -1625,7 +1580,7 @@
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -1633,9 +1588,8 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="26"/>
       <c r="D41" s="2"/>
@@ -1646,7 +1600,7 @@
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -1654,12 +1608,11 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A1:L2"/>
     <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,7 +1621,7 @@
     <brk id="30" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" man="1"/>
+    <brk id="12" man="1"/>
   </colBreaks>
 </worksheet>
 </file>